--- a/0.跟做项目/前列腺炎诊断--医疗影像大模型/挑战杯校赛/附件3： 院系申请汇总表.xlsx
+++ b/0.跟做项目/前列腺炎诊断--医疗影像大模型/挑战杯校赛/附件3： 院系申请汇总表.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
   <si>
     <t>第十届“卓越杯”暨第十九届“挑战杯”同济大学院系申请汇总表（需要排序）</t>
   </si>
@@ -119,7 +119,7 @@
     <t>B3.科技发明制作</t>
   </si>
   <si>
-    <t>3A．科技发明制作A类</t>
+    <t>3B．科技发明制作B类</t>
   </si>
   <si>
     <t xml:space="preserve"> ****</t>
@@ -149,13 +149,16 @@
     <t>计算机科学与技术</t>
   </si>
   <si>
-    <t>大模型辅助的前列腺超声影像癌症T分期系统</t>
+    <t>大模型辅助的前列腺超声影像癌症诊断系统</t>
   </si>
   <si>
     <t>A1.个人项目</t>
   </si>
   <si>
-    <t>朱俊泽 2351114 王雪宸 2353597 高晗博 2453585</t>
+    <t>3A．科技发明制作B类</t>
+  </si>
+  <si>
+    <t xml:space="preserve">朱俊泽 2351114 </t>
   </si>
   <si>
     <t>本科生作品</t>
@@ -170,10 +173,10 @@
     <t>倪张凯</t>
   </si>
   <si>
-    <t>助理教授</t>
-  </si>
-  <si>
-    <t>和专利公司交流申报</t>
+    <t>副教授</t>
+  </si>
+  <si>
+    <t>专利已经完成撰写，和专利公司交流修改准备申报，预计3月中可以申请专利，3月底拿到申请号，4月在实质审查阶段。给医院使用的demo已经制作完毕，医院方面传达了积极评价。论文方面对相关工作已经做好了调研和总结，论文的framework已经做好，预计4月份完成初稿，5月初投出论文。</t>
   </si>
   <si>
     <t>针对男性高发病前列腺癌症，本专利提出了一种改进的检测方法，结合医学分割大模型 MedSAM 2 的先验知识，对超声视频进行分割，协助优化对病灶区域的检测与标注。具体而言，对于包含病灶信息的超声视频，将其划分为 K 个等长片段  (i ∈ [1,K])，然后将这些片段逐一输入到 MedSAM 2 网络，获取每个片段的最优病灶区域分割结果。基于每个片段中的病灶区域，模型将其作为伪标签，并与其他相关区域进行相似度计算，从而修正视频级别的粗粒度标签，生成更加细粒度的片段级标签。这一过程显著提高了标签的准确性，减少了超声视频由于扫描流程导致的无病灶片段信息对最终分期判断的干扰，避免了噪声对肿瘤诊断结果的负面影响。
@@ -191,7 +194,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -215,12 +218,6 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="仿宋_GB2312"/>
       <charset val="134"/>
     </font>
     <font>
@@ -770,164 +767,164 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -950,36 +947,33 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1309,8 +1303,8 @@
   </sheetPr>
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.62727272727273" defaultRowHeight="14" outlineLevelRow="7"/>
@@ -1383,8 +1377,8 @@
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="42" customHeight="1" spans="1:19">
       <c r="A3" s="6" t="s">
@@ -1408,7 +1402,7 @@
       <c r="G3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I3" s="6" t="s">
@@ -1438,7 +1432,7 @@
       <c r="Q3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="R3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="S3" s="6" t="s">
@@ -1446,189 +1440,189 @@
       </c>
     </row>
     <row r="4" ht="66.75" customHeight="1" spans="1:19">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="14" t="s">
+      <c r="H4" s="10"/>
+      <c r="I4" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="M4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="N4" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="Q4" s="10" t="s">
+      <c r="Q4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="R4" s="14" t="s">
+      <c r="R4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="S4" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" ht="82" customHeight="1" spans="1:19">
-      <c r="A5" s="12">
+      <c r="A5" s="11">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="10">
+      <c r="I5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="9">
         <v>18007721992</v>
       </c>
-      <c r="K5" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="L5" s="10">
+      <c r="K5" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="9">
         <v>2351114</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="9">
         <v>18007721992</v>
       </c>
-      <c r="N5" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="O5" s="10">
+      <c r="N5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" s="9">
         <v>22134</v>
       </c>
-      <c r="P5" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q5" s="10">
+      <c r="P5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q5" s="9">
         <v>13646019080</v>
       </c>
-      <c r="R5" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="S5" s="10" t="s">
+      <c r="R5" s="9" t="s">
         <v>47</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="6" ht="43.5" customHeight="1" spans="1:19">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
     </row>
     <row r="7" ht="43.5" customHeight="1" spans="1:19">
-      <c r="A7" s="12">
+      <c r="A7" s="11">
         <v>4</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
     </row>
     <row r="8" ht="43.5" customHeight="1" spans="1:19">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="F3:F8" etc:filterBottomFollowUsedRange="0">
